--- a/1.xlsx
+++ b/1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982E9156-9F15-473C-8784-524606F1C87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA8ABD8-97B5-442D-AD4C-3EE2DBEAC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>CASH / CREDIT BILL</t>
   </si>
@@ -48,18 +61,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">           MT/008/2023-24</t>
-  </si>
-  <si>
-    <t>Date8/4/2023</t>
-  </si>
-  <si>
-    <t>Natco Pharmaceuticals Ltd</t>
-  </si>
-  <si>
-    <t>GSTIN-36AAACN6927A1ZQ</t>
-  </si>
-  <si>
     <t>Duty Slip No</t>
   </si>
   <si>
@@ -106,6 +107,9 @@
   </si>
   <si>
     <t>For MEGA CITY TOURS &amp; TRAVELS</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -116,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +160,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -236,11 +247,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -293,6 +330,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:XFC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -627,37 +676,37 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:1023 16383:16383" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:1023 16383:16383" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="1:1023 16383:16383" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1023 16383:16383" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -674,22 +723,18 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:1023 16383:16383" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1023 16383:16383" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:1023 16383:16383" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" spans="1:1023 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -701,10 +746,8 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:1023 16383:16383" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
+    <row r="9" spans="1:1023 16383:16383" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -716,43 +759,43 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="1:1023 16383:16383" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1023 16383:16383" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="J10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1023 16383:16383" x14ac:dyDescent="0.3">
@@ -760,19 +803,19 @@
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="22"/>
+      <c r="K11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="26"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:1023 16383:16383" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1023 16383:16383" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
@@ -998,7 +1041,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1052,15 +1095,18 @@
       <c r="H29" s="6"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="K29" s="8">
+        <f>SUM(K12:K28)</f>
+        <v>0</v>
+      </c>
       <c r="L29" s="12"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="1:1023 16383:16383" x14ac:dyDescent="0.3">
       <c r="K30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
